--- a/documents/状态表.xlsx
+++ b/documents/状态表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
@@ -11,12 +11,12 @@
     <sheet name="消息定义" sheetId="2" r:id="rId2"/>
     <sheet name="测试类别" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="72">
   <si>
     <t>正常</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -283,14 +283,34 @@
   </si>
   <si>
     <t>状态位定义表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INTERFACE_NOPERMISSION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INTERFACE_SERVICEERROR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务错误</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -389,7 +409,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -463,7 +483,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -498,7 +517,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -674,14 +692,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:D41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D2"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.125" customWidth="1"/>
@@ -690,14 +708,14 @@
     <col min="10" max="10" width="39.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:4" ht="24.75" customHeight="1">
       <c r="B2" s="6" t="s">
         <v>66</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:4">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
@@ -708,7 +726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:4">
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
@@ -717,7 +735,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:4" ht="15" customHeight="1">
       <c r="B5" s="3">
         <v>100</v>
       </c>
@@ -728,7 +746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:4">
       <c r="B6" s="3">
         <v>101</v>
       </c>
@@ -739,7 +757,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:4">
       <c r="B7" s="3">
         <v>102</v>
       </c>
@@ -750,7 +768,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:4">
       <c r="B8" s="3">
         <v>103</v>
       </c>
@@ -761,7 +779,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:4">
       <c r="B9" s="3">
         <v>104</v>
       </c>
@@ -772,7 +790,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:4">
       <c r="B10" s="3">
         <v>105</v>
       </c>
@@ -783,7 +801,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:4">
       <c r="B11" s="3">
         <v>106</v>
       </c>
@@ -794,7 +812,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:4">
       <c r="B12" s="3">
         <v>110</v>
       </c>
@@ -805,142 +823,156 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:4">
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B14" s="1"/>
+    <row r="14" spans="2:4">
+      <c r="B14" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:4">
+      <c r="B15" s="3">
+        <v>601</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16" s="3">
+        <v>602</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:4">
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:4">
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:4">
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:4">
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:4">
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:4">
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:4">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:4">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:4">
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="5"/>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:4">
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="5"/>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:4">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:4">
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:4">
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
     </row>
-    <row r="31" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:4" ht="15.75" customHeight="1">
       <c r="B31" s="3"/>
       <c r="C31" s="4"/>
       <c r="D31" s="3"/>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:4">
       <c r="B32" s="3"/>
       <c r="C32" s="4"/>
       <c r="D32" s="5"/>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:4">
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="5"/>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:4">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:4">
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:4">
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:4">
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:4">
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:4">
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:4">
       <c r="B41" s="5"/>
       <c r="C41" s="3"/>
       <c r="D41" s="5"/>
@@ -956,27 +988,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="26.375" customWidth="1"/>
     <col min="4" max="4" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:4">
       <c r="B2" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:4">
       <c r="B3" s="2" t="s">
         <v>16</v>
       </c>
@@ -987,12 +1019,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:4">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:4">
       <c r="B5" s="3"/>
       <c r="C5" s="4" t="s">
         <v>30</v>
@@ -1001,7 +1033,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:4">
       <c r="B6" s="3"/>
       <c r="C6" s="4" t="s">
         <v>31</v>
@@ -1010,7 +1042,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:4">
       <c r="B7" s="3"/>
       <c r="C7" s="4" t="s">
         <v>19</v>
@@ -1019,7 +1051,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:4">
       <c r="B8" s="3"/>
       <c r="C8" s="4" t="s">
         <v>21</v>
@@ -1028,7 +1060,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:4">
       <c r="B9" s="3"/>
       <c r="C9" s="4" t="s">
         <v>22</v>
@@ -1037,7 +1069,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:4">
       <c r="B10" s="3"/>
       <c r="C10" s="4" t="s">
         <v>23</v>
@@ -1046,7 +1078,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:4">
       <c r="B11" s="3"/>
       <c r="C11" s="4" t="s">
         <v>27</v>
@@ -1055,7 +1087,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:4">
       <c r="B12" s="3"/>
       <c r="C12" s="4" t="s">
         <v>28</v>
@@ -1064,7 +1096,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:4">
       <c r="B13" s="3"/>
       <c r="C13" s="4" t="s">
         <v>29</v>
@@ -1073,7 +1105,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:4">
       <c r="B14" s="3"/>
       <c r="C14" s="3" t="s">
         <v>35</v>
@@ -1082,7 +1114,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:4">
       <c r="B15" s="3"/>
       <c r="C15" s="3" t="s">
         <v>37</v>
@@ -1091,7 +1123,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:4">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -1107,28 +1139,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C3:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="27.625" customWidth="1"/>
     <col min="4" max="4" width="25.875" customWidth="1"/>
     <col min="5" max="5" width="44" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:5" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="3:5" ht="24" customHeight="1">
       <c r="C3" s="6" t="s">
         <v>45</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="3:5" ht="18.75" customHeight="1">
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1139,7 +1171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="3:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="3:5" ht="27.75" customHeight="1">
       <c r="C5" s="4" t="str">
         <f>LOWER(D5)</f>
         <v>test_database_affect</v>
@@ -1151,7 +1183,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="3:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="3:5" ht="26.25" customHeight="1">
       <c r="C6" s="4" t="str">
         <f t="shared" ref="C6:C14" si="0">LOWER(D6)</f>
         <v>test_database_no_affect</v>
@@ -1163,7 +1195,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="3:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="3:5" ht="24.75" customHeight="1">
       <c r="C7" s="4" t="str">
         <f t="shared" si="0"/>
         <v>test_web_affect</v>
@@ -1175,7 +1207,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="3:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="3:5" ht="26.25" customHeight="1">
       <c r="C8" s="4" t="str">
         <f t="shared" si="0"/>
         <v>test_web_no_affect</v>
@@ -1187,7 +1219,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="3:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="3:5" ht="26.25" customHeight="1">
       <c r="C9" s="4" t="str">
         <f t="shared" si="0"/>
         <v>test_util_affect</v>
@@ -1199,7 +1231,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="3:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="3:5" ht="22.5" customHeight="1">
       <c r="C10" s="4" t="str">
         <f t="shared" si="0"/>
         <v>test_util_no_affect</v>
@@ -1211,7 +1243,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="3:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="3:5" ht="23.25" customHeight="1">
       <c r="C11" s="4" t="str">
         <f t="shared" si="0"/>
         <v>test_service_affect</v>
@@ -1223,7 +1255,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="3:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="3:5" ht="20.25" customHeight="1">
       <c r="C12" s="4" t="str">
         <f t="shared" si="0"/>
         <v>test_service_no_affect</v>
@@ -1235,7 +1267,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="3:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="3:5" ht="23.25" customHeight="1">
       <c r="C13" s="4" t="str">
         <f t="shared" si="0"/>
         <v>test_interface_affect</v>
@@ -1247,7 +1279,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="3:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="3:5" ht="20.25" customHeight="1">
       <c r="C14" s="4" t="str">
         <f t="shared" si="0"/>
         <v>test_interface_no_affect</v>
